--- a/参考文献.xlsx
+++ b/参考文献.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_Ref507523414" localSheetId="0">Sheet1!$C$32</definedName>
+    <definedName name="_Ref507523419" localSheetId="0">Sheet1!$C$33</definedName>
+    <definedName name="_Ref507523423" localSheetId="0">Sheet1!$C$34</definedName>
     <definedName name="OLE_LINK2" localSheetId="0">Sheet1!$C$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,12 +249,228 @@
   <si>
     <t>Sorting fish by computer vision</t>
   </si>
+  <si>
+    <t>Atoum Y, Srivastava S, Liu X. Automatic feeding control for dense aquaculture fish tanks[J]. IEEE Signal Processing Letters, 2014, 22(8): 1089-1093.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automatic feeding control for dense aquaculture fish tanks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish species classification by color, texture and multi-class support vector machine using computer vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duarte S, Reig L, Oca J. Measurement of sole activity by digital image analysis[J]. Aquacultural Engineering, 2009, 41(1): 22-27.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measurement of sole activity by digital image analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Near-infrared imaging to quantify the feeding behavior of fish in aquaculture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou C, Zhang B, Lin K, et al. Near-infrared imaging to quantify the feeding behavior of fish in aquaculture[J]. Computers and Electronics in Agriculture, 2017, 135: 233-241.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于光流法与特征统计的鱼群异常行为检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于欣, 侯晓娇, 卢焕达, 等. 基于光流法与特征统计的鱼群异常行为检测[J]. 农业工程学报, 2014, 30(2): 162-168.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indoor-outdoor image classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Szummer M, Picard R W. Indoor-outdoor image classification[C]//Proceedings 1998 IEEE International Workshop on Content-Based Access of Image and Video Database. IEEE, 1998: 42-51.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Girshick R. Fast r-cnn[C]//Proceedings of the IEEE international conference on computer vision. 2015: 1440-1448.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fast r-cnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The MNIST database of handwritten digit images for machine learning research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deng L. The MNIST database of handwritten digit images for machine learning research [best of the web][J]. IEEE Signal Processing Magazine, 2012, 29(6): 141-142.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imagenet large scale visual recognition challenge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russakovsky O, Deng J, Su H, et al. Imagenet large scale visual recognition challenge[J]. International journal of computer vision, 2015, 115(3): 211-252.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microsoft coco: Common objects in context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lin T Y, Maire M, Belongie S, et al. Microsoft coco: Common objects in context[C]//European conference on computer vision. Springer, Cham, 2014: 740-755.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Le J, Xu L. An Automated Fish Counting Algorithm in Aquaculture Based on Image Processing[C]// International Forum on Mechanical, Control and Automation. 2017. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lin C F, Xu L H, Liu Z C. Digitization of Free-Swimming Fish Based on Binocular Stereo Vision[C]// International Symposium on Computational Intelligence and Design. IEEE, 2016:363-368. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>高明学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐立鸿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李大威</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光照不均匀图像的一种环带最优阈值分割方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">[J]. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机电一体化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 2010, 16(2):26-30.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照不均匀图像的一种环带最优阈值分割方法</t>
+  </si>
+  <si>
+    <t>An Automated Fish Counting Algorithm in Aquaculture Based on Image Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digitization of Free-Swimming Fish Based on Binocular Stereo Vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐立鸿,蔚瑞华,乐九一,曹家恒. 一种水产养殖的自动投饵和水质监测控制系统及方法[P]. 上海：CN107094683A,2017-08-29.</t>
+  </si>
+  <si>
+    <t>徐立鸿,蔚瑞华,曹家恒，张佳林. 一种基于计算机视觉的残留鱼饵计数方法[P]. 上海：CN109389613A，2017-08-29.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cao J, Xu L. Research on Counting Algorithm of Residual Feeds in Aquaculture Based on Machine Vision[C]//2018 IEEE 3rd International Conference on Image, Vision and Computing (ICIVC). IEEE, 2018: 498-503.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +524,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,6 +573,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -632,7 +871,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -841,39 +1080,81 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
@@ -886,102 +1167,147 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>47</v>
       </c>

--- a/参考文献.xlsx
+++ b/参考文献.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4920" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_Ref507523414" localSheetId="0">Sheet1!$C$32</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,136 +335,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>光照不均匀图像的一种环带最优阈值分割方法</t>
+  </si>
+  <si>
+    <t>An Automated Fish Counting Algorithm in Aquaculture Based on Image Processing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Digitization of Free-Swimming Fish Based on Binocular Stereo Vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐立鸿,蔚瑞华,乐九一,曹家恒. 一种水产养殖的自动投饵和水质监测控制系统及方法[P]. 上海：CN107094683A,2017-08-29.</t>
+  </si>
+  <si>
+    <t>徐立鸿,蔚瑞华,曹家恒，张佳林. 一种基于计算机视觉的残留鱼饵计数方法[P]. 上海：CN109389613A，2017-08-29.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cao J, Xu L. Research on Counting Algorithm of Residual Feeds in Aquaculture Based on Machine Vision[C]//2018 IEEE 3rd International Conference on Image, Vision and Computing (ICIVC). IEEE, 2018: 498-503.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eriksen M S, Faerevik G, Kittilsen S, et al. Stressed mothers–troubled offspring: a study of behavioural maternal effects in farmed Salmo salar[J]. Journal of fish biology, 2011, 79(3): 575-586.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高明学, 徐立鸿, 李大威,等. 光照不均匀图像的一种环带最优阈值分割方法[J]. 机电一体化, 2010, 16(2):26-30.</t>
+  </si>
+  <si>
+    <t>Ye Z, Zhao J, Han Z, et al. Behavioral characteristics and statistics-based imaging techniques in the assessment and optimization of tilapia feeding in a recirculating aquaculture system[J]. Transactions of the ASABE, 2016, 59(1): 345-355.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Docs.python.org. (2019). pickle — Python object serialization — Python 3.8.0 documentation. [online] Available at: https://docs.python.org/3/library/pickle.html [Accessed 23 Nov. 2019].</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未摄食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G0715001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>高明学</t>
+      <t>"Lenna", </t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">, </t>
+      <t>En.wikipedia.org</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
-      <t>徐立鸿</t>
+      <t>, 2020. [Online]. Available: https://en.wikipedia.org/wiki/Lenna. [Accessed: 02- Jan- 2020].</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李大威</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>光照不均匀图像的一种环带最优阈值分割方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">[J]. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机电一体化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, 2010, 16(2):26-30.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光照不均匀图像的一种环带最优阈值分割方法</t>
-  </si>
-  <si>
-    <t>An Automated Fish Counting Algorithm in Aquaculture Based on Image Processing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Digitization of Free-Swimming Fish Based on Binocular Stereo Vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐立鸿,蔚瑞华,乐九一,曹家恒. 一种水产养殖的自动投饵和水质监测控制系统及方法[P]. 上海：CN107094683A,2017-08-29.</t>
-  </si>
-  <si>
-    <t>徐立鸿,蔚瑞华,曹家恒，张佳林. 一种基于计算机视觉的残留鱼饵计数方法[P]. 上海：CN109389613A，2017-08-29.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cao J, Xu L. Research on Counting Algorithm of Residual Feeds in Aquaculture Based on Machine Vision[C]//2018 IEEE 3rd International Conference on Image, Vision and Computing (ICIVC). IEEE, 2018: 498-503.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shanon C. A mathematical theory of communication[J]. Bell System Technical Journal, 1948, 27: 379-623.</t>
   </si>
 </sst>
 </file>
@@ -531,17 +521,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -552,7 +542,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -560,11 +550,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -574,6 +699,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -857,7 +1009,7 @@
   <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1124,7 +1276,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -1205,7 +1357,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>59</v>
@@ -1216,29 +1368,29 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>66</v>
+      <c r="C35" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -1246,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -1254,32 +1406,47 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C38" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C40" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C41" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1927,4 +2094,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="7"/>
+      <c r="C4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="12">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12">
+        <v>55</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100</v>
+      </c>
+      <c r="G4" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>25</v>
+      </c>
+      <c r="F5" s="14">
+        <v>55</v>
+      </c>
+      <c r="G5" s="15">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/参考文献.xlsx
+++ b/参考文献.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6150" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <definedName name="_Ref507523414" localSheetId="0">Sheet1!$C$32</definedName>
     <definedName name="_Ref507523419" localSheetId="0">Sheet1!$C$33</definedName>
     <definedName name="_Ref507523423" localSheetId="0">Sheet1!$C$34</definedName>
+    <definedName name="_xlchart.0" hidden="1">Sheet2!$F$8:$I$8</definedName>
+    <definedName name="_xlchart.1" hidden="1">Sheet2!$F$8:$I$8</definedName>
     <definedName name="OLE_LINK2" localSheetId="0">Sheet1!$C$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +456,42 @@
   </si>
   <si>
     <t>Shanon C. A mathematical theory of communication[J]. Bell System Technical Journal, 1948, 27: 379-623.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou C, Xu D, Chen L, et al. Evaluation of fish feeding intensity in aquaculture using a convolutional neural network and machine vision[J]. Aquaculture, 2019, 507: 457-465.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren S, He K, Girshick R, et al. Faster r-cnn: Towards real-time object detection with region proposal networks[C]//Advances in neural information processing systems. 2015: 91-99.</t>
+  </si>
+  <si>
+    <t>Wang J, Yang Y, Mao J, et al. Cnn-rnn: A unified framework for multi-label image classification[C]//Proceedings of the IEEE conference on computer vision and pattern recognition. 2016: 2285-2294.</t>
+  </si>
+  <si>
+    <t>Szegedy C, Ioffe S, Vanhoucke V, et al. Inception-v4, inception-resnet and the impact of residual connections on learning[C]//Thirty-First AAAI Conference on Artificial Intelligence. 2017.</t>
+  </si>
+  <si>
+    <t>Wang X, Han T X, Yan S. An HOG-LBP human detector with partial occlusion handling[C]//2009 IEEE 12th international conference on computer vision. IEEE, 2009: 32-39.</t>
+  </si>
+  <si>
+    <t>Abdel-Hakim A E, Farag A A. CSIFT: A SIFT descriptor with color invariant characteristics[C]//2006 IEEE Computer Society Conference on Computer Vision and Pattern Recognition (CVPR'06). Ieee, 2006, 2: 1978-1983.</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specificity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -699,12 +737,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,6 +758,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -741,6 +779,894 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>CNN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>性能表现</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$F$7:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Specificity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$F$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C9C-47F1-8EF7-E52160A5D6A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="367149567"/>
+        <c:axId val="367130015"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="367149567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367130015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="367130015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367149567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586154</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1008,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1441,42 +2367,60 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C43" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C44" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C45" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C46" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C47" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
@@ -2098,89 +3042,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>25</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>55</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>100</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="14" t="s">
+    <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>25</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>55</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0.75</v>
+      </c>
+      <c r="G8">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.75</v>
+      </c>
+      <c r="I8">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -2189,5 +3161,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/参考文献.xlsx
+++ b/参考文献.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,6 @@
     <definedName name="_Ref507523414" localSheetId="0">Sheet1!$C$32</definedName>
     <definedName name="_Ref507523419" localSheetId="0">Sheet1!$C$33</definedName>
     <definedName name="_Ref507523423" localSheetId="0">Sheet1!$C$34</definedName>
-    <definedName name="_xlchart.0" hidden="1">Sheet2!$F$8:$I$8</definedName>
-    <definedName name="_xlchart.1" hidden="1">Sheet2!$F$8:$I$8</definedName>
     <definedName name="OLE_LINK2" localSheetId="0">Sheet1!$C$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +428,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Shanon C. A mathematical theory of communication[J]. Bell System Technical Journal, 1948, 27: 379-623.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou C, Xu D, Chen L, et al. Evaluation of fish feeding intensity in aquaculture using a convolutional neural network and machine vision[J]. Aquaculture, 2019, 507: 457-465.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accuracy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specificity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang J, Yang Y, Mao J, et al. Cnn-rnn: A unified framework for multi-label image classification[C]//Proceedings of the IEEE conference on computer vision and pattern recognition. 2016: 2285-2294.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ren S, He K, Girshick R, et al. Faster r-cnn: Towards real-time object detection with region proposal networks[C]//Advances in neural information processing systems. 2015: 91-99.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Szegedy C, Ioffe S, Vanhoucke V, et al. Inception-v4, inception-resnet and the impact of residual connections on learning[C]//Thirty-First AAAI Conference on Artificial Intelligence. 2017.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang X, Han T X, Yan S. An HOG-LBP human detector with partial occlusion handling[C]//2009 IEEE 12th international conference on computer vision. IEEE, 2009: 32-39.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abdel-Hakim A E, Farag A A. CSIFT: A SIFT descriptor with color invariant characteristics[C]//2006 IEEE Computer Society Conference on Computer Vision and Pattern Recognition (CVPR'06). Ieee, 2006, 2: 1978-1983.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>"Lenna", </t>
     </r>
@@ -455,42 +497,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shanon C. A mathematical theory of communication[J]. Bell System Technical Journal, 1948, 27: 379-623.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhou C, Xu D, Chen L, et al. Evaluation of fish feeding intensity in aquaculture using a convolutional neural network and machine vision[J]. Aquaculture, 2019, 507: 457-465.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ren S, He K, Girshick R, et al. Faster r-cnn: Towards real-time object detection with region proposal networks[C]//Advances in neural information processing systems. 2015: 91-99.</t>
-  </si>
-  <si>
-    <t>Wang J, Yang Y, Mao J, et al. Cnn-rnn: A unified framework for multi-label image classification[C]//Proceedings of the IEEE conference on computer vision and pattern recognition. 2016: 2285-2294.</t>
-  </si>
-  <si>
-    <t>Szegedy C, Ioffe S, Vanhoucke V, et al. Inception-v4, inception-resnet and the impact of residual connections on learning[C]//Thirty-First AAAI Conference on Artificial Intelligence. 2017.</t>
-  </si>
-  <si>
-    <t>Wang X, Han T X, Yan S. An HOG-LBP human detector with partial occlusion handling[C]//2009 IEEE 12th international conference on computer vision. IEEE, 2009: 32-39.</t>
-  </si>
-  <si>
-    <t>Abdel-Hakim A E, Farag A A. CSIFT: A SIFT descriptor with color invariant characteristics[C]//2006 IEEE Computer Society Conference on Computer Vision and Pattern Recognition (CVPR'06). Ieee, 2006, 2: 1978-1983.</t>
-  </si>
-  <si>
-    <t>Accuracy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Specificity</t>
+    <t>varidational autoencoder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +505,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,12 +561,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -727,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,7 +737,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2364,7 +2364,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2372,7 +2372,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2380,125 +2380,128 @@
         <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C48" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -3044,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -3052,93 +3055,93 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="14"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>25</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>55</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>100</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>25</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>55</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">

--- a/参考文献.xlsx
+++ b/参考文献.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="12300" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_Ref507523414" localSheetId="0">Sheet1!$C$32</definedName>
-    <definedName name="_Ref507523419" localSheetId="0">Sheet1!$C$33</definedName>
-    <definedName name="_Ref507523423" localSheetId="0">Sheet1!$C$34</definedName>
+    <definedName name="_Ref507523414" localSheetId="0">Sheet1!$C$63</definedName>
+    <definedName name="_Ref507523419" localSheetId="0">Sheet1!$C$64</definedName>
+    <definedName name="_Ref507523423" localSheetId="0">Sheet1!$C$65</definedName>
     <definedName name="OLE_LINK2" localSheetId="0">Sheet1!$C$6</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fish species classification by color, texture and multi-class support vector machine using computer vision</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Duarte S, Reig L, Oca J. Measurement of sole activity by digital image analysis[J]. Aquacultural Engineering, 2009, 41(1): 22-27.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -500,12 +496,219 @@
     <t>varidational autoencoder</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>Ji, S., Xu, W., Yang, M., &amp; Yu, K. (2012). 3D convolutional neural networks for human action recognition. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>IEEE transactions on pattern analysis and machine intelligence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1), 221-231.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Molchanov, P., Gupta, S., Kim, K., &amp; Kautz, J. (2015). Hand gesture recognition with 3D convolutional neural networks. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proceedings of the IEEE conference on computer vision and pattern recognition workshops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> (pp. 1-7).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Simonyan, K., &amp; Zisserman, A. (2014). Two-stream convolutional networks for action recognition in videos. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Advances in neural information processing systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t> (pp. 568-576).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feichtenhofer, C., Pinz, A., &amp; Wildes, R. (2016). Spatiotemporal residual networks for video action recognition. In Advances in neural information processing systems (pp. 3468-3476).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang H, Kläser A, Schmid C, et al. Dense trajectories and motion boundary descriptors for action recognition[J]. International journal of computer vision, 2013, 103(1): 60-79.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rybski P E, Huber D, Morris D D, et al. Visual classification of coarse vehicle orientation using histogram of oriented gradients features[C]//2010 IEEE Intelligent vehicles symposium. IEEE, 2010: 921-928.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhang Y, Jin R, Zhou Z H. Understanding bag-of-words model: a statistical framework[J]. International Journal of Machine Learning and Cybernetics, 2010, 1(1-4): 43-52.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hu J, Li D, Duan Q, et al. Fish species classification by color, texture and multi-class support vector machine using computer vision[J]. Computers and electronics in agriculture, 2012, 88: 133-140.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付岩, 王耀威, 王伟强, 等. SVM 用于基于内容的自然图像分类和检索[J]. 计算机学报, 2003, 26(10): 1261-1265.</t>
+  </si>
+  <si>
+    <t>张慧娜, 李裕梅, 傅莺莺. 基于 Haar-CNN 模型的自然场景图像分类的研究[J]. 四川师范大学学报 (自然科学版), 2017 (2017 年 01): 119-126.</t>
+  </si>
+  <si>
+    <t>李钊, 卢苇, 邢薇薇, 等. CNN 视觉特征的图像检索[J]. 北京邮电大学学报, 2015, 38(s1): 103-106,120.</t>
+  </si>
+  <si>
+    <t>Haralick R M, Shanmugam K, Dinstein I H. Textural features for image classification[J]. IEEE Transactions on systems, man, and cybernetics, 1973 (6): 610-621.</t>
+  </si>
+  <si>
+    <t>万维. 基于深度学习的目标检测算法研究及应用[D]. 电子科技大学, 2015.</t>
+  </si>
+  <si>
+    <t>宋焕生, 张向清, 郑宝峰, 等. 基于深度学习方法的复杂场景下车辆目标检测[J]. 计算机应用研究, 2018 (2018 年 04): 1270-1273.</t>
+  </si>
+  <si>
+    <t>唐聪, 凌永顺, 郑科栋, 等. 基于深度学习的多视窗 SSD 目标检测方法[J]. 红外与激光工程, 2018, 47(1): 126003-0126003 (9).</t>
+  </si>
+  <si>
+    <t>张慧, 王坤峰, 王飞跃. 深度学习在目标视觉检测中的应用进展与展望[J]. 自动化学报, 2017, 43(8): 1289-1305.</t>
+  </si>
+  <si>
+    <t>Zhao Z Q, Zheng P, Xu S, et al. Object detection with deep learning: A review[J]. IEEE transactions on neural networks and learning systems, 2019, 30(11): 3212-3232.</t>
+  </si>
+  <si>
+    <t>Han J, Zhang D, Cheng G, et al. Advanced deep-learning techniques for salient and category-specific object detection: a survey[J]. IEEE Signal Processing Magazine, 2018, 35(1): 84-100.</t>
+  </si>
+  <si>
+    <t>Druzhkov P N, Kustikova V D. A survey of deep learning methods and software tools for image classification and object detection[J]. Pattern Recognition and Image Analysis, 2016, 26(1): 9-15.</t>
+  </si>
+  <si>
+    <t>Chan A B, Vasconcelos N. Mixtures of dynamic textures[C]//Tenth IEEE International Conference on Computer Vision (ICCV'05) Volume 1. IEEE, 2005, 1: 641-647.</t>
+  </si>
+  <si>
+    <t>Barrington L, Chan A B, Lanckriet G. Modeling music as a dynamic texture[J]. IEEE Transactions on Audio, Speech, and Language Processing, 2009, 18(3): 602-612.</t>
+  </si>
+  <si>
+    <t>Kim W, Kim C. Background subtraction for dynamic texture scenes using fuzzy color histograms[J]. IEEE Signal processing letters, 2012, 19(3): 127-130.</t>
+  </si>
+  <si>
+    <t>Kamnitsas K, Ledig C, Newcombe V F J, et al. Efficient multi-scale 3D CNN with fully connected CRF for accurate brain lesion segmentation[J]. Medical image analysis, 2017, 36: 61-78.</t>
+  </si>
+  <si>
+    <t>Zou L, Zheng J, Miao C, et al. 3D CNN based automatic diagnosis of attention deficit hyperactivity disorder using functional and structural MRI[J]. IEEE Access, 2017, 5: 23626-23636.</t>
+  </si>
+  <si>
+    <t>Ye H, Wu Z, Zhao R W, et al. Evaluating two-stream CNN for video classification[C]//Proceedings of the 5th ACM on International Conference on Multimedia Retrieval. 2015: 435-442.</t>
+  </si>
+  <si>
+    <t>Peng X, Schmid C. Multi-region two-stream R-CNN for action detection[C]//European conference on computer vision. Springer, Cham, 2016: 744-759.</t>
+  </si>
+  <si>
+    <t>Schuldt C, Laptev I, Caputo B. Recognizing human actions: a local SVM approach[C]//Proceedings of the 17th International Conference on Pattern Recognition, 2004. ICPR 2004. IEEE, 2004, 3: 32-36.</t>
+  </si>
+  <si>
+    <t>Marszalek M, Laptev I, Schmid C. Actions in context[C]//2009 IEEE Conference on Computer Vision and Pattern Recognition. IEEE, 2009: 2929-2936.</t>
+  </si>
+  <si>
+    <t>Blank M, Gorelick L, Shechtman E, et al. Actions as space-time shapes[C]//Tenth IEEE International Conference on Computer Vision (ICCV'05) Volume 1. IEEE, 2005, 2: 1395-1402.</t>
+  </si>
+  <si>
+    <t>Soomro K, Zamir A R, Shah M. UCF101: A dataset of 101 human actions classes from videos in the wild[J]. arXiv preprint arXiv:1212.0402, 2012.</t>
+  </si>
+  <si>
+    <t>Idrees H, Zamir A R, Jiang Y G, et al. The THUMOS challenge on action recognition for videos “in the wild”[J]. Computer Vision and Image Understanding, 2017, 155: 1-23.</t>
+  </si>
+  <si>
+    <t>Kuehne H, Jhuang H, Garrote E, et al. HMDB: a large video database for human motion recognition[C]//2011 International Conference on Computer Vision. IEEE, 2011: 2556-2563.</t>
+  </si>
+  <si>
+    <t>Karpathy A, Toderici G, Shetty S, et al. Large-scale video classification with convolutional neural networks[C]//Proceedings of the IEEE conference on Computer Vision and Pattern Recognition. 2014: 1725-1732.</t>
+  </si>
+  <si>
+    <t>Thomee B, Shamma D A, Friedland G, et al. YFCC100M: The new data in multimedia research[J]. Communications of the ACM, 2016, 59(2): 64-73.</t>
+  </si>
+  <si>
+    <t>Jiang Y G, Wu Z, Wang J, et al. FCVID: Fudan-Columbia Video Dataset[J].</t>
+  </si>
+  <si>
+    <t>Caba Heilbron F, Escorcia V, Ghanem B, et al. Activitynet: A large-scale video benchmark for human activity understanding[C]//Proceedings of the ieee conference on computer vision and pattern recognition. 2015: 961-970.</t>
+  </si>
+  <si>
+    <t>Abu-El-Haija S, Kothari N, Lee J, et al. Youtube-8m: A large-scale video classification benchmark[J]. arXiv preprint arXiv:1609.08675, 2016.</t>
+  </si>
+  <si>
+    <t>Liu H, Xu L, Li D. Detection and recognition of uneaten fish food pellets in aquaculture using image processing[C]//Sixth International Conference on Graphic and Image Processing (ICGIP 2014). International Society for Optics and Photonics, 2015, 9443: 94430G.</t>
+  </si>
+  <si>
+    <t>Kingma D P, Welling M. Auto-encoding variational bayes[J]. arXiv preprint arXiv:1312.6114, 2013.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +772,12 @@
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -728,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,6 +967,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -825,7 +1038,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1932,16 +2144,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:BD166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2162,11 +2374,8 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2185,10 +2394,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2196,10 +2405,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
@@ -2207,10 +2416,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -2218,121 +2427,109 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C26" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C27" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C33" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C35" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C36" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>64</v>
+      <c r="B37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2340,7 +2537,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2348,7 +2545,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>66</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2356,7 +2553,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2364,676 +2561,852 @@
         <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>90</v>
+      <c r="C44" s="14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>44</v>
       </c>
+      <c r="B45" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>45</v>
       </c>
+      <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C46" s="3" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>46</v>
       </c>
+      <c r="B47" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C48" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C49" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C50" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C51" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C52" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C53" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:56" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C54" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C55" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AB55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AD55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AF55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AH55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+      <c r="BD55" s="1"/>
+    </row>
+    <row r="56" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C56" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C57" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C58" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C59" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C60" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C61" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:56" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C62" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:56" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:56" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C66" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67" s="1"/>
+      <c r="C67" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B70" s="1"/>
+      <c r="C70" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B71" s="1"/>
+      <c r="C71" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B72" s="1"/>
+      <c r="C72" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B73" s="1"/>
+      <c r="C73" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B74" s="1"/>
+      <c r="C74" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B75" s="1"/>
+      <c r="C75" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B76" s="1"/>
+      <c r="C76" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B77" s="1"/>
+      <c r="C77" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B78" s="1"/>
+      <c r="C78" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B79" s="1"/>
+      <c r="C79" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B81" s="1"/>
+      <c r="C81" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B82" s="1"/>
+      <c r="C82" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B83" s="1"/>
+      <c r="C83" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="13" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B84" s="1"/>
+      <c r="C84" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="5">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="5">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="5">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="5">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="5">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="5">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A166" s="5">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A167" s="5">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A168" s="5">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A169" s="5">
         <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A170" s="5">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3056,48 +3429,48 @@
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="D3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="15"/>
+      <c r="C4" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="13"/>
-      <c r="C4" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="D4" s="9">
         <v>25</v>
@@ -3113,9 +3486,9 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -3132,16 +3505,16 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>87</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>88</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
